--- a/flask-server/downloaded_marking_scheme/marking_scheme.xlsx
+++ b/flask-server/downloaded_marking_scheme/marking_scheme.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nuran\MyWork\coding\repos\Flask-server-MCQ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nuran\MyWork\coding\repos\Automated-MCQ-grading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D461363-22AA-4A11-8E98-B1642E77AB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F30A6AE-659C-41D9-A79D-A4E91A17B63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{206D7788-4370-4B66-97E2-80F46CED16D5}"/>
   </bookViews>
@@ -391,15 +391,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E7AF2B-F68C-4EE1-857C-35F5B19B247B}">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -407,7 +407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -418,19 +418,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -441,19 +432,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -464,19 +446,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -487,19 +460,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -510,19 +474,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -533,19 +488,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -556,19 +502,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -579,19 +516,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -602,19 +530,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -625,19 +544,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -648,19 +558,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -671,19 +572,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
-      <c r="H13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -694,19 +586,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-      <c r="H14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -717,19 +600,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -740,19 +614,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="H16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -763,19 +628,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="H17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -786,19 +642,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
-      <c r="H18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -809,19 +656,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19">
-        <v>3</v>
-      </c>
-      <c r="H19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -832,19 +670,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20">
-        <v>3</v>
-      </c>
-      <c r="H20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -855,19 +684,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21">
-        <v>3</v>
-      </c>
-      <c r="H21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -878,19 +698,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="G22">
-        <v>3</v>
-      </c>
-      <c r="H22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -901,19 +712,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-      <c r="G23">
-        <v>3</v>
-      </c>
-      <c r="H23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -924,19 +726,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="G24">
-        <v>3</v>
-      </c>
-      <c r="H24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -947,19 +740,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="G25">
-        <v>3</v>
-      </c>
-      <c r="H25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -970,19 +754,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26">
-        <v>3</v>
-      </c>
-      <c r="H26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -993,19 +768,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="G27">
-        <v>3</v>
-      </c>
-      <c r="H27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1016,19 +782,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="G28">
-        <v>3</v>
-      </c>
-      <c r="H28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1039,19 +796,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-      <c r="G29">
-        <v>3</v>
-      </c>
-      <c r="H29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1062,19 +810,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>2</v>
-      </c>
-      <c r="G30">
-        <v>3</v>
-      </c>
-      <c r="H30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1085,19 +824,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
-      <c r="G31">
-        <v>3</v>
-      </c>
-      <c r="H31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1108,19 +838,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="G32">
-        <v>3</v>
-      </c>
-      <c r="H32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1131,19 +852,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>2</v>
-      </c>
-      <c r="G33">
-        <v>3</v>
-      </c>
-      <c r="H33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1154,19 +866,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>2</v>
-      </c>
-      <c r="G34">
-        <v>3</v>
-      </c>
-      <c r="H34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1177,19 +880,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>2</v>
-      </c>
-      <c r="G35">
-        <v>3</v>
-      </c>
-      <c r="H35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1200,19 +894,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>2</v>
-      </c>
-      <c r="G36">
-        <v>3</v>
-      </c>
-      <c r="H36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1223,19 +908,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-      <c r="G37">
-        <v>3</v>
-      </c>
-      <c r="H37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1246,19 +922,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>2</v>
-      </c>
-      <c r="G38">
-        <v>3</v>
-      </c>
-      <c r="H38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1269,19 +936,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>2</v>
-      </c>
-      <c r="G39">
-        <v>3</v>
-      </c>
-      <c r="H39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1292,19 +950,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>2</v>
-      </c>
-      <c r="G40">
-        <v>3</v>
-      </c>
-      <c r="H40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1315,19 +964,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>2</v>
-      </c>
-      <c r="G41">
-        <v>3</v>
-      </c>
-      <c r="H41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1338,19 +978,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
-      <c r="G42">
-        <v>3</v>
-      </c>
-      <c r="H42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1361,19 +992,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>2</v>
-      </c>
-      <c r="G43">
-        <v>3</v>
-      </c>
-      <c r="H43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1384,19 +1006,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>2</v>
-      </c>
-      <c r="G44">
-        <v>3</v>
-      </c>
-      <c r="H44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1407,19 +1020,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>2</v>
-      </c>
-      <c r="G45">
-        <v>3</v>
-      </c>
-      <c r="H45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1430,19 +1034,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>2</v>
-      </c>
-      <c r="G46">
-        <v>3</v>
-      </c>
-      <c r="H46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1453,19 +1048,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <v>2</v>
-      </c>
-      <c r="G47">
-        <v>3</v>
-      </c>
-      <c r="H47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1476,19 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48">
-        <v>2</v>
-      </c>
-      <c r="G48">
-        <v>3</v>
-      </c>
-      <c r="H48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1499,19 +1076,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49">
-        <v>2</v>
-      </c>
-      <c r="G49">
-        <v>3</v>
-      </c>
-      <c r="H49">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1522,19 +1090,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>2</v>
-      </c>
-      <c r="G50">
-        <v>3</v>
-      </c>
-      <c r="H50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1545,19 +1104,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51">
-        <v>2</v>
-      </c>
-      <c r="G51">
-        <v>3</v>
-      </c>
-      <c r="H51">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D53">
         <f>COUNTIF(B2:B51,"=0")</f>
         <v>11</v>
